--- a/docs/ÖckeroDocs.xlsx
+++ b/docs/ÖckeroDocs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattias/Projects/ockero_data_pipeline/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3FCAAA-41B9-114A-9CE7-2ACE1BD95B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77587D9A-A95B-D945-874B-242D406369CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1060" windowWidth="34840" windowHeight="21400" activeTab="1" xr2:uid="{32455BE6-D4EC-C04E-A3CD-60FAC3F1ACFE}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17780" activeTab="1" xr2:uid="{32455BE6-D4EC-C04E-A3CD-60FAC3F1ACFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordlista" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="285">
   <si>
     <t>SS12000</t>
   </si>
@@ -653,9 +653,6 @@
     <t>https://test.elevinformation.se/swagger/ui/index</t>
   </si>
   <si>
-    <t>Fixa DLT från SS12000 så det löser frågan med Secret och Token</t>
-  </si>
-  <si>
     <t>Undersök, behövs ens SS12000?</t>
   </si>
   <si>
@@ -978,6 +975,27 @@
   </si>
   <si>
     <t>Vad krävs? Fixa environment.txt etc</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Behövs ej</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Kika</t>
+  </si>
+  <si>
+    <t>Startsida, står det rätt saker?</t>
+  </si>
+  <si>
+    <t>Varje enskild sida? Filter etc</t>
+  </si>
+  <si>
+    <t>PBi</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1005,7 @@
   <numFmts count="1">
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1038,6 +1056,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -1050,8 +1075,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,6 +1105,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1110,11 +1146,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1126,14 +1163,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1145,12 +1182,152 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1158,8 +1335,111 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1242,63 +1522,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1630,54 +1855,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1743,114 +1920,6 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -3905,9 +3974,66 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ide</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> på lösning gällande första sidan!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Istället för att koppla ihop data sättet så kör man delen med "tabellen" Rakt av från Excel arket! Så de de  behöver göra är att uppdatera excelarket som ligger på en viss plats sedan laddas allt om!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Är det en stabil lösning?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base"/>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="dk1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -3917,6 +4043,100 @@
         </a:p>
         <a:p>
           <a:pPr rtl="0" fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>På en första sidan av</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> dashboaden, skirv en förklaring för vad denna dashboard gör och vad för typ av mätetal man kan hitta!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tänk vad vi gjorde på Hallands sjukhus!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5 frågor som appaen ska svara på!</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kanske addera lite text i varje dashboard,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> alternativt att du har ytterligare 1 sida!</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
@@ -3976,6 +4196,13 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
             <a:t>- profiles.yml</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>- venv?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4175,37 +4402,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{40C230B3-F8F0-1C44-A4B3-32991D6A1F1B}" name="Table6101112" displayName="Table6101112" ref="B8:E53" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{40C230B3-F8F0-1C44-A4B3-32991D6A1F1B}" name="Table6101112" displayName="Table6101112" ref="B8:E53" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B8:E53" xr:uid="{40C230B3-F8F0-1C44-A4B3-32991D6A1F1B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6EF8CC82-A14C-0E43-869B-6908F33DCF2F}" name="Ord" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A72A6260-DB51-284E-96B0-775DFEF6A820}" name="Grupp" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{35D1F22B-B740-184E-AE70-A80BABFA25B0}" name="Mattias tolkning" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{739AC833-B20D-CF49-A7A0-98805F3C8E4D}" name="Förklaring" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6EF8CC82-A14C-0E43-869B-6908F33DCF2F}" name="Ord" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{A72A6260-DB51-284E-96B0-775DFEF6A820}" name="Grupp" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{35D1F22B-B740-184E-AE70-A80BABFA25B0}" name="Mattias tolkning" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{739AC833-B20D-CF49-A7A0-98805F3C8E4D}" name="Förklaring" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52F01A7C-FDB2-CA41-8CC9-DA8F1409A820}" name="Table2" displayName="Table2" ref="B3:E10" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52F01A7C-FDB2-CA41-8CC9-DA8F1409A820}" name="Table2" displayName="Table2" ref="B3:E10" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="B3:E10" xr:uid="{52F01A7C-FDB2-CA41-8CC9-DA8F1409A820}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C6B0FFA1-350A-B147-9A9C-9B8BD7436F1E}" name="Person " dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{617B9427-44A2-FB46-B315-B290FCDE9DAF}" name="Roll " dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{A38CEB7F-8A6E-1249-A115-34A29809805E}" name="Notis " dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{109B5ACF-E4BC-FB4A-A90D-A5122F304BD9}" name="Kontakt " dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{C6B0FFA1-350A-B147-9A9C-9B8BD7436F1E}" name="Person " dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{617B9427-44A2-FB46-B315-B290FCDE9DAF}" name="Roll " dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{A38CEB7F-8A6E-1249-A115-34A29809805E}" name="Notis " dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{109B5ACF-E4BC-FB4A-A90D-A5122F304BD9}" name="Kontakt " dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8EFF36D8-3911-F442-ADB8-C52A9D03DD49}" name="Table7" displayName="Table7" ref="G3:H6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8EFF36D8-3911-F442-ADB8-C52A9D03DD49}" name="Table7" displayName="Table7" ref="G3:H6" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="G3:H6" xr:uid="{8EFF36D8-3911-F442-ADB8-C52A9D03DD49}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7BF4BBAE-380B-CA40-8342-76A3311EF2C3}" name="Dokumentation" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{8563FB1A-6E0F-F54B-8AE6-8EEBAF4588E8}" name="Länk" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{7BF4BBAE-380B-CA40-8342-76A3311EF2C3}" name="Dokumentation" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{8563FB1A-6E0F-F54B-8AE6-8EEBAF4588E8}" name="Länk" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4225,67 +4452,70 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6E4028D0-697B-044A-83D8-CDBAA1AF8577}" name="Table5" displayName="Table5" ref="B4:H19" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="B4:H19" xr:uid="{6E4028D0-697B-044A-83D8-CDBAA1AF8577}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6E4028D0-697B-044A-83D8-CDBAA1AF8577}" name="Table5" displayName="Table5" ref="B4:H20" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B4:H20" xr:uid="{6E4028D0-697B-044A-83D8-CDBAA1AF8577}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3E981BCA-56FD-D540-A429-172806A07870}" name="Typ" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{57ACA6D4-1F1D-5E4E-B304-6A9C28B35605}" name="Tabell" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{AB4BA498-19E7-F448-8857-54864E560EDF}" name="Mottagare" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{EC9D69D9-9610-314E-AC91-F547B38EF0E8}" name="Datum" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{434875A9-DEFA-134F-BDBB-5BCC9AA9B230}" name="Fråga" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{3F7DF697-A524-9340-A883-646E61E3F247}" name="Svar" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{8D455FCF-EBA9-E74D-9B38-5587FBC3E254}" name="Klar" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{3E981BCA-56FD-D540-A429-172806A07870}" name="Typ" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{57ACA6D4-1F1D-5E4E-B304-6A9C28B35605}" name="Tabell" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{AB4BA498-19E7-F448-8857-54864E560EDF}" name="Mottagare" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{EC9D69D9-9610-314E-AC91-F547B38EF0E8}" name="Datum" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{434875A9-DEFA-134F-BDBB-5BCC9AA9B230}" name="Fråga" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3F7DF697-A524-9340-A883-646E61E3F247}" name="Svar" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{8D455FCF-EBA9-E74D-9B38-5587FBC3E254}" name="Klar" dataDxfId="9"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EEA8AC7-7F29-C744-A9CE-E9338857BCF0}" name="Table3" displayName="Table3" ref="G10:K32" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="G10:K32" xr:uid="{6EEA8AC7-7F29-C744-A9CE-E9338857BCF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EEA8AC7-7F29-C744-A9CE-E9338857BCF0}" name="Table3" displayName="Table3" ref="G10:K33" totalsRowShown="0" headerRowDxfId="50" dataDxfId="1">
+  <autoFilter ref="G10:K33" xr:uid="{6EEA8AC7-7F29-C744-A9CE-E9338857BCF0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G11:K33">
+    <sortCondition ref="K10:K33"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{799800C1-D768-594B-A937-509C596B9E63}" name="Grupp " dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{97AAE5A5-1819-F444-BE63-955F5134DEF7}" name="Typ " dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{0CEE5611-F734-1C45-A510-FDAD7CDE3AD6}" name="Steg " dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{5B60C3BC-712F-AB42-AC08-D76B51DCC3B5}" name="Comment " dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{BBBFB0A1-C8C8-3C46-BD6F-706C32C3F609}" name="Done " dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{799800C1-D768-594B-A937-509C596B9E63}" name="Grupp " dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{97AAE5A5-1819-F444-BE63-955F5134DEF7}" name="Typ " dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0CEE5611-F734-1C45-A510-FDAD7CDE3AD6}" name="Steg " dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{5B60C3BC-712F-AB42-AC08-D76B51DCC3B5}" name="Comment " dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{BBBFB0A1-C8C8-3C46-BD6F-706C32C3F609}" name="Done " dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A99D16C8-E49C-AE4A-A4F5-9BCA7F7C2FA3}" name="Table4" displayName="Table4" ref="B10:C14" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A99D16C8-E49C-AE4A-A4F5-9BCA7F7C2FA3}" name="Table4" displayName="Table4" ref="B10:C14" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="B10:C14" xr:uid="{A99D16C8-E49C-AE4A-A4F5-9BCA7F7C2FA3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD5110B4-CE7C-E142-A707-0290387F2D60}" name="Tools" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{C09FBC65-4B73-4C44-85FB-9FEB2B41DEE7}" name="Comment" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{BD5110B4-CE7C-E142-A707-0290387F2D60}" name="Tools" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{C09FBC65-4B73-4C44-85FB-9FEB2B41DEE7}" name="Comment" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0323ED4E-AD5A-9143-A336-3E4B3A93B568}" name="Table1" displayName="Table1" ref="B11:G29" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0323ED4E-AD5A-9143-A336-3E4B3A93B568}" name="Table1" displayName="Table1" ref="B11:G29" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B11:G29" xr:uid="{0323ED4E-AD5A-9143-A336-3E4B3A93B568}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A6EB9809-4FA0-1E46-B079-D2E6FE10CAF3}" name="Källa" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{B0D27A4D-C59C-554C-A344-69898C6FE3FD}" name="endpoint" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{F534262E-1F40-A54D-B6C1-2699E1B70D0D}" name="Tabell" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{888526B5-E701-DA48-862E-D61C5011194F}" name="Allmänt" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{945C8072-1737-CD44-A6DF-B4180130EEB2}" name="Behöver" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{7F0D9366-09E1-9546-A127-BFCB87128D0C}" name="Senare" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{A6EB9809-4FA0-1E46-B079-D2E6FE10CAF3}" name="Källa" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{B0D27A4D-C59C-554C-A344-69898C6FE3FD}" name="endpoint" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{F534262E-1F40-A54D-B6C1-2699E1B70D0D}" name="Tabell" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{888526B5-E701-DA48-862E-D61C5011194F}" name="Allmänt" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{945C8072-1737-CD44-A6DF-B4180130EEB2}" name="Behöver" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{7F0D9366-09E1-9546-A127-BFCB87128D0C}" name="Senare" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2E888178-598F-6249-9627-5F265192E032}" name="Table6" displayName="Table6" ref="B10:C16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2E888178-598F-6249-9627-5F265192E032}" name="Table6" displayName="Table6" ref="B10:C16" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B10:C16" xr:uid="{2E888178-598F-6249-9627-5F265192E032}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{85A06C3F-2776-ED46-AF60-AF68FA5434DF}" name="Verktyg" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{A8DD796F-D9AF-C140-AECC-70794D679BC1}" name="Notis" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{85A06C3F-2776-ED46-AF60-AF68FA5434DF}" name="Verktyg" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{A8DD796F-D9AF-C140-AECC-70794D679BC1}" name="Notis" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4626,7 +4856,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -4638,82 +4868,82 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -4721,95 +4951,95 @@
         <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>121</v>
@@ -4817,288 +5047,288 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -5106,43 +5336,43 @@
         <v>164</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>163</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5160,7 +5390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E80543B-994F-2F45-A784-298F692683B2}">
   <dimension ref="B3:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B23" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -5367,7 +5597,7 @@
         <v>167</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -5402,10 +5632,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C986490-D0EE-8C4B-90E8-BA6F562EA778}">
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5437,7 +5667,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>118</v>
@@ -5446,7 +5676,7 @@
         <v>119</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -5464,7 +5694,7 @@
         <v>122</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>12</v>
@@ -5507,10 +5737,10 @@
         <v>45999</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>12</v>
@@ -5533,7 +5763,7 @@
         <v>129</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>12</v>
@@ -5553,13 +5783,13 @@
         <v>45999</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>236</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="17" x14ac:dyDescent="0.2">
@@ -5576,10 +5806,10 @@
         <v>45999</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>12</v>
@@ -5599,10 +5829,10 @@
         <v>46006</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>12</v>
@@ -5619,7 +5849,7 @@
         <v>46006</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -5628,13 +5858,13 @@
         <v>153</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E13" s="17">
         <v>46008</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -5649,7 +5879,7 @@
         <v>46008</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -5664,10 +5894,13 @@
         <v>46009</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>267</v>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="17" x14ac:dyDescent="0.2">
@@ -5681,7 +5914,7 @@
         <v>46009</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -5696,41 +5929,54 @@
         <v>46009</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" s="17">
         <v>46009</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E19" s="17">
         <v>46009</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G19" s="11"/>
     </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="G4:H20">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
+      <formula>LEN(TRIM(G4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5740,10 +5986,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC750C2-960E-8446-B120-86AAB283077E}">
-  <dimension ref="B3:K32"/>
+  <dimension ref="B3:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5755,7 +6001,7 @@
     <col min="5" max="5" width="43.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="4" customWidth="1"/>
     <col min="9" max="9" width="76.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="4" bestFit="1" customWidth="1"/>
@@ -5821,15 +6067,17 @@
       <c r="C11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
@@ -5838,17 +6086,19 @@
       <c r="C12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
@@ -5857,17 +6107,19 @@
       <c r="C13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
@@ -5876,269 +6128,308 @@
       <c r="C14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="18" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="18" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="18" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="18" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="18" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G22" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G23" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H23" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G22" s="1" t="s">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G24" s="1" t="s">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G25" s="1" t="s">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G27" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J28" s="1"/>
+      <c r="I28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J29" s="1"/>
+      <c r="I29" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J30" s="1"/>
+      <c r="H30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="H32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G33" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G32" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K32" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/ÖckeroDocs.xlsx
+++ b/docs/ÖckeroDocs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattias/Projects/ockero_data_pipeline/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77587D9A-A95B-D945-874B-242D406369CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93353DD7-C24F-324D-9752-8E1F3E1938F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17780" activeTab="1" xr2:uid="{32455BE6-D4EC-C04E-A3CD-60FAC3F1ACFE}"/>
+    <workbookView xWindow="1160" yWindow="1040" windowWidth="34840" windowHeight="21400" activeTab="4" xr2:uid="{32455BE6-D4EC-C04E-A3CD-60FAC3F1ACFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordlista" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="289">
   <si>
     <t>SS12000</t>
   </si>
@@ -422,9 +422,6 @@
     <t>Lösa historik?</t>
   </si>
   <si>
-    <t>Kan man lösa historike med metadelar från DLT?, där kan man få ut historiken när ett uttag gjordes!</t>
-  </si>
-  <si>
     <t>activites</t>
   </si>
   <si>
@@ -611,9 +608,6 @@
     <t>Sätt ihop data från båda systemen?</t>
   </si>
   <si>
-    <t>Behövs det? Kanske bara schoolsoft och strunta i ss12000?</t>
-  </si>
-  <si>
     <t>Install</t>
   </si>
   <si>
@@ -986,16 +980,34 @@
     <t>Extra</t>
   </si>
   <si>
-    <t>Kika</t>
-  </si>
-  <si>
     <t>Startsida, står det rätt saker?</t>
   </si>
   <si>
     <t>Varje enskild sida? Filter etc</t>
   </si>
   <si>
-    <t>PBi</t>
+    <t>Ej viktigt, tas inte med här</t>
+  </si>
+  <si>
+    <t>Inte denna gång, får blir framåt</t>
+  </si>
+  <si>
+    <t>Ja, Anna eller Martina svarade att de gjorde om nåogt runt denna tiden, så därför kan data se lite skräp ut. Kanske bara ska läsa senaste 3 åren för att inte skapa kaous?</t>
+  </si>
+  <si>
+    <t>Dra ner på historik i Betyg, kör bara 3 år för det ser konstigt ut innan det. Eller snarer kör från 2022 eller liknadne och framåt!</t>
+  </si>
+  <si>
+    <t>Kan man lösa historike med metadelar från DLT?, där kan man få ut historiken när ett uttag gjordes! Inte denna gång! Isåfall utveckling</t>
+  </si>
+  <si>
+    <t>Behövs det? Kanske bara schoolsoft och strunta i ss12000? - Behövs ej</t>
+  </si>
+  <si>
+    <t>Ej använd!</t>
+  </si>
+  <si>
+    <t>Validering, se till att excel arket och resten av sidorna är samma data, så dubbelkolla siffrorna per varje skola etc, tillsammans med Öckerö</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1201,17 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1307,26 +1329,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4402,37 +4404,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{40C230B3-F8F0-1C44-A4B3-32991D6A1F1B}" name="Table6101112" displayName="Table6101112" ref="B8:E53" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{40C230B3-F8F0-1C44-A4B3-32991D6A1F1B}" name="Table6101112" displayName="Table6101112" ref="B8:E53" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B8:E53" xr:uid="{40C230B3-F8F0-1C44-A4B3-32991D6A1F1B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6EF8CC82-A14C-0E43-869B-6908F33DCF2F}" name="Ord" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{A72A6260-DB51-284E-96B0-775DFEF6A820}" name="Grupp" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{35D1F22B-B740-184E-AE70-A80BABFA25B0}" name="Mattias tolkning" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{739AC833-B20D-CF49-A7A0-98805F3C8E4D}" name="Förklaring" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{6EF8CC82-A14C-0E43-869B-6908F33DCF2F}" name="Ord" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{A72A6260-DB51-284E-96B0-775DFEF6A820}" name="Grupp" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{35D1F22B-B740-184E-AE70-A80BABFA25B0}" name="Mattias tolkning" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{739AC833-B20D-CF49-A7A0-98805F3C8E4D}" name="Förklaring" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52F01A7C-FDB2-CA41-8CC9-DA8F1409A820}" name="Table2" displayName="Table2" ref="B3:E10" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52F01A7C-FDB2-CA41-8CC9-DA8F1409A820}" name="Table2" displayName="Table2" ref="B3:E10" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="B3:E10" xr:uid="{52F01A7C-FDB2-CA41-8CC9-DA8F1409A820}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C6B0FFA1-350A-B147-9A9C-9B8BD7436F1E}" name="Person " dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{617B9427-44A2-FB46-B315-B290FCDE9DAF}" name="Roll " dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{A38CEB7F-8A6E-1249-A115-34A29809805E}" name="Notis " dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{109B5ACF-E4BC-FB4A-A90D-A5122F304BD9}" name="Kontakt " dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{C6B0FFA1-350A-B147-9A9C-9B8BD7436F1E}" name="Person " dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{617B9427-44A2-FB46-B315-B290FCDE9DAF}" name="Roll " dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{A38CEB7F-8A6E-1249-A115-34A29809805E}" name="Notis " dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{109B5ACF-E4BC-FB4A-A90D-A5122F304BD9}" name="Kontakt " dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8EFF36D8-3911-F442-ADB8-C52A9D03DD49}" name="Table7" displayName="Table7" ref="G3:H6" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8EFF36D8-3911-F442-ADB8-C52A9D03DD49}" name="Table7" displayName="Table7" ref="G3:H6" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="G3:H6" xr:uid="{8EFF36D8-3911-F442-ADB8-C52A9D03DD49}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7BF4BBAE-380B-CA40-8342-76A3311EF2C3}" name="Dokumentation" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{8563FB1A-6E0F-F54B-8AE6-8EEBAF4588E8}" name="Länk" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{7BF4BBAE-380B-CA40-8342-76A3311EF2C3}" name="Dokumentation" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{8563FB1A-6E0F-F54B-8AE6-8EEBAF4588E8}" name="Länk" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4452,70 +4454,70 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6E4028D0-697B-044A-83D8-CDBAA1AF8577}" name="Table5" displayName="Table5" ref="B4:H20" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B4:H20" xr:uid="{6E4028D0-697B-044A-83D8-CDBAA1AF8577}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6E4028D0-697B-044A-83D8-CDBAA1AF8577}" name="Table5" displayName="Table5" ref="B4:H19" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="B4:H19" xr:uid="{6E4028D0-697B-044A-83D8-CDBAA1AF8577}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3E981BCA-56FD-D540-A429-172806A07870}" name="Typ" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{57ACA6D4-1F1D-5E4E-B304-6A9C28B35605}" name="Tabell" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{AB4BA498-19E7-F448-8857-54864E560EDF}" name="Mottagare" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{EC9D69D9-9610-314E-AC91-F547B38EF0E8}" name="Datum" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{434875A9-DEFA-134F-BDBB-5BCC9AA9B230}" name="Fråga" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{3F7DF697-A524-9340-A883-646E61E3F247}" name="Svar" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{8D455FCF-EBA9-E74D-9B38-5587FBC3E254}" name="Klar" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{3E981BCA-56FD-D540-A429-172806A07870}" name="Typ" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{57ACA6D4-1F1D-5E4E-B304-6A9C28B35605}" name="Tabell" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{AB4BA498-19E7-F448-8857-54864E560EDF}" name="Mottagare" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{EC9D69D9-9610-314E-AC91-F547B38EF0E8}" name="Datum" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{434875A9-DEFA-134F-BDBB-5BCC9AA9B230}" name="Fråga" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{3F7DF697-A524-9340-A883-646E61E3F247}" name="Svar" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{8D455FCF-EBA9-E74D-9B38-5587FBC3E254}" name="Klar" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EEA8AC7-7F29-C744-A9CE-E9338857BCF0}" name="Table3" displayName="Table3" ref="G10:K33" totalsRowShown="0" headerRowDxfId="50" dataDxfId="1">
-  <autoFilter ref="G10:K33" xr:uid="{6EEA8AC7-7F29-C744-A9CE-E9338857BCF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EEA8AC7-7F29-C744-A9CE-E9338857BCF0}" name="Table3" displayName="Table3" ref="G10:K36" totalsRowShown="0" headerRowDxfId="49" dataDxfId="2">
+  <autoFilter ref="G10:K36" xr:uid="{6EEA8AC7-7F29-C744-A9CE-E9338857BCF0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G11:K33">
     <sortCondition ref="K10:K33"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{799800C1-D768-594B-A937-509C596B9E63}" name="Grupp " dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{97AAE5A5-1819-F444-BE63-955F5134DEF7}" name="Typ " dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{0CEE5611-F734-1C45-A510-FDAD7CDE3AD6}" name="Steg " dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{5B60C3BC-712F-AB42-AC08-D76B51DCC3B5}" name="Comment " dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{BBBFB0A1-C8C8-3C46-BD6F-706C32C3F609}" name="Done " dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{799800C1-D768-594B-A937-509C596B9E63}" name="Grupp " dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{97AAE5A5-1819-F444-BE63-955F5134DEF7}" name="Typ " dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0CEE5611-F734-1C45-A510-FDAD7CDE3AD6}" name="Steg " dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{5B60C3BC-712F-AB42-AC08-D76B51DCC3B5}" name="Comment " dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{BBBFB0A1-C8C8-3C46-BD6F-706C32C3F609}" name="Done " dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A99D16C8-E49C-AE4A-A4F5-9BCA7F7C2FA3}" name="Table4" displayName="Table4" ref="B10:C14" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A99D16C8-E49C-AE4A-A4F5-9BCA7F7C2FA3}" name="Table4" displayName="Table4" ref="B10:C14" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="B10:C14" xr:uid="{A99D16C8-E49C-AE4A-A4F5-9BCA7F7C2FA3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD5110B4-CE7C-E142-A707-0290387F2D60}" name="Tools" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{C09FBC65-4B73-4C44-85FB-9FEB2B41DEE7}" name="Comment" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{BD5110B4-CE7C-E142-A707-0290387F2D60}" name="Tools" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{C09FBC65-4B73-4C44-85FB-9FEB2B41DEE7}" name="Comment" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0323ED4E-AD5A-9143-A336-3E4B3A93B568}" name="Table1" displayName="Table1" ref="B11:G29" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0323ED4E-AD5A-9143-A336-3E4B3A93B568}" name="Table1" displayName="Table1" ref="B11:G29" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="B11:G29" xr:uid="{0323ED4E-AD5A-9143-A336-3E4B3A93B568}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A6EB9809-4FA0-1E46-B079-D2E6FE10CAF3}" name="Källa" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{B0D27A4D-C59C-554C-A344-69898C6FE3FD}" name="endpoint" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{F534262E-1F40-A54D-B6C1-2699E1B70D0D}" name="Tabell" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{888526B5-E701-DA48-862E-D61C5011194F}" name="Allmänt" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{945C8072-1737-CD44-A6DF-B4180130EEB2}" name="Behöver" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{7F0D9366-09E1-9546-A127-BFCB87128D0C}" name="Senare" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{A6EB9809-4FA0-1E46-B079-D2E6FE10CAF3}" name="Källa" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{B0D27A4D-C59C-554C-A344-69898C6FE3FD}" name="endpoint" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{F534262E-1F40-A54D-B6C1-2699E1B70D0D}" name="Tabell" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{888526B5-E701-DA48-862E-D61C5011194F}" name="Allmänt" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{945C8072-1737-CD44-A6DF-B4180130EEB2}" name="Behöver" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{7F0D9366-09E1-9546-A127-BFCB87128D0C}" name="Senare" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2E888178-598F-6249-9627-5F265192E032}" name="Table6" displayName="Table6" ref="B10:C16" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2E888178-598F-6249-9627-5F265192E032}" name="Table6" displayName="Table6" ref="B10:C16" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B10:C16" xr:uid="{2E888178-598F-6249-9627-5F265192E032}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{85A06C3F-2776-ED46-AF60-AF68FA5434DF}" name="Verktyg" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{A8DD796F-D9AF-C140-AECC-70794D679BC1}" name="Notis" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{85A06C3F-2776-ED46-AF60-AF68FA5434DF}" name="Verktyg" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{A8DD796F-D9AF-C140-AECC-70794D679BC1}" name="Notis" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4840,7 +4842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCA9808-E318-5C48-8147-9C6A3F9F02A2}">
   <dimension ref="B3:E53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -4856,7 +4858,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -4868,511 +4870,511 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5390,7 +5392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E80543B-994F-2F45-A784-298F692683B2}">
   <dimension ref="B3:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B23" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -5421,10 +5423,10 @@
         <v>48</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -5437,10 +5439,10 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -5453,10 +5455,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="G5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -5471,7 +5473,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -5534,8 +5536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F938633-01B1-9B49-99E7-259B179BCE0F}">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5550,7 +5552,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -5560,16 +5562,16 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -5577,41 +5579,41 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -5632,10 +5634,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C986490-D0EE-8C4B-90E8-BA6F562EA778}">
-  <dimension ref="B2:H20"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5653,48 +5655,48 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="17">
         <v>45999</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>12</v>
@@ -5702,19 +5704,19 @@
     </row>
     <row r="6" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="17">
         <v>45999</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>12</v>
@@ -5725,22 +5727,22 @@
     </row>
     <row r="7" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="17">
         <v>45999</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>12</v>
@@ -5748,22 +5750,22 @@
     </row>
     <row r="8" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="17">
         <v>45999</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>12</v>
@@ -5771,45 +5773,45 @@
     </row>
     <row r="9" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="17">
         <v>45999</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="17">
         <v>45999</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>12</v>
@@ -5817,22 +5819,22 @@
     </row>
     <row r="11" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="17">
         <v>46006</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>12</v>
@@ -5840,37 +5842,44 @@
     </row>
     <row r="12" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="17">
         <v>46006</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="119" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" s="17">
         <v>46008</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="G13" s="11"/>
+        <v>258</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1</v>
@@ -5879,13 +5888,13 @@
         <v>46008</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>1</v>
@@ -5894,10 +5903,10 @@
         <v>46009</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>12</v>
@@ -5905,7 +5914,7 @@
     </row>
     <row r="16" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>1</v>
@@ -5914,66 +5923,63 @@
         <v>46009</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="17">
         <v>46009</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E18" s="17">
         <v>46009</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E19" s="17">
         <v>46009</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+        <v>271</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G4:H20">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+  <conditionalFormatting sqref="G4:H19">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(G4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5986,10 +5992,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC750C2-960E-8446-B120-86AAB283077E}">
-  <dimension ref="B3:K33"/>
+  <dimension ref="B3:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6076,7 +6082,7 @@
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -6097,7 +6103,7 @@
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -6118,7 +6124,7 @@
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
@@ -6139,7 +6145,7 @@
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
@@ -6154,7 +6160,7 @@
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
@@ -6171,7 +6177,7 @@
         <v>62</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.2">
@@ -6188,7 +6194,7 @@
         <v>63</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.2">
@@ -6205,7 +6211,7 @@
         <v>65</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.2">
@@ -6222,7 +6228,7 @@
         <v>67</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.2">
@@ -6239,7 +6245,7 @@
         <v>70</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.2">
@@ -6250,11 +6256,11 @@
         <v>53</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="7:11" x14ac:dyDescent="0.2">
@@ -6265,13 +6271,13 @@
         <v>53</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.2">
@@ -6282,11 +6288,11 @@
         <v>91</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="7:11" x14ac:dyDescent="0.2">
@@ -6302,7 +6308,9 @@
       <c r="J24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="25" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G25" s="2" t="s">
@@ -6315,9 +6323,11 @@
         <v>92</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="26" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G26" s="2" t="s">
@@ -6327,22 +6337,24 @@
         <v>91</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K26" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="27" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -6355,12 +6367,14 @@
         <v>68</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="K28" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="29" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G29" s="2" t="s">
@@ -6370,10 +6384,10 @@
         <v>91</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K29" s="2"/>
     </row>
@@ -6382,26 +6396,26 @@
         <v>57</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G31" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="K31" s="2"/>
     </row>
@@ -6413,23 +6427,60 @@
         <v>60</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G33" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G34" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G35" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G36" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6648,13 +6699,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>14</v>
@@ -6665,13 +6716,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>14</v>
@@ -6682,13 +6733,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>14</v>
@@ -6699,16 +6750,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -6716,16 +6767,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -6733,13 +6784,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>12</v>
@@ -6750,13 +6801,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>12</v>
@@ -6767,13 +6818,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>12</v>
@@ -6784,13 +6835,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>12</v>
@@ -6801,13 +6852,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>12</v>
@@ -6843,7 +6894,7 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -6855,7 +6906,7 @@
     </row>
     <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -6866,55 +6917,55 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
